--- a/data/trans_dic/P16A_n_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4220240733532883</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.476255318182959</v>
+        <v>0.4762553181829589</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.477695117817044</v>
@@ -697,7 +697,7 @@
         <v>0.5232135829832123</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5896168020014447</v>
+        <v>0.5896168020014446</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3061159215610755</v>
+        <v>0.3079250414672667</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4496855783717076</v>
+        <v>0.4512385657365353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.384084435126776</v>
+        <v>0.3889570740339416</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4372031957621045</v>
+        <v>0.4374505331166953</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4512551639792915</v>
+        <v>0.4528720647879746</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5905957302858779</v>
+        <v>0.5882005528162967</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5680418286113659</v>
+        <v>0.5692206161760948</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.641094058749623</v>
+        <v>0.6447568552503153</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3961278637492309</v>
+        <v>0.395031630084653</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5400479650041078</v>
+        <v>0.5404166781846043</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4972751494971614</v>
+        <v>0.4981589384385495</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5666684717420704</v>
+        <v>0.5647692565761796</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3640099746892485</v>
+        <v>0.3625186571360079</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.517465050221548</v>
+        <v>0.5170679153178703</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4565207662843077</v>
+        <v>0.4576664471419312</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.517258547805893</v>
+        <v>0.519860587802235</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5051875458826176</v>
+        <v>0.506514795493591</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6441994533246993</v>
+        <v>0.6431574098610386</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6336347614833258</v>
+        <v>0.631781932434596</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6951111183462352</v>
+        <v>0.6949789148408945</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4354752585345965</v>
+        <v>0.4350659206714712</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5822767587274853</v>
+        <v>0.5810420630405898</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5440829155309561</v>
+        <v>0.5475037595342582</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6129138201086972</v>
+        <v>0.6109687240130284</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08123790330314036</v>
+        <v>0.08092819798677302</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1520421572794324</v>
+        <v>0.1508610986491372</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1598854712728529</v>
+        <v>0.1596046609981366</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2453559415155024</v>
+        <v>0.2462909749697976</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1625239835251718</v>
+        <v>0.1619863103002112</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2595773544369773</v>
+        <v>0.2586406673013213</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2432335230146151</v>
+        <v>0.2457242493179983</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3234949268134264</v>
+        <v>0.3230556055200108</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1229474403651326</v>
+        <v>0.1232731459003239</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2069934738968374</v>
+        <v>0.2068316625801434</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2077112199047618</v>
+        <v>0.2064690822751488</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.288197999311607</v>
+        <v>0.2899329312329499</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1089219031614834</v>
+        <v>0.1088082829365283</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1858175619474587</v>
+        <v>0.1863553474005728</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1950381009933342</v>
+        <v>0.1936129230093393</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2873969266432909</v>
+        <v>0.287108218481114</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1995040229051469</v>
+        <v>0.1984859518484567</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3035988534119808</v>
+        <v>0.3016202903669249</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2844156900454586</v>
+        <v>0.2856115880614514</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3607594509368661</v>
+        <v>0.3618396800554159</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1468646786422319</v>
+        <v>0.1477530653724993</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2360227567232549</v>
+        <v>0.235506622326763</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2347686728234669</v>
+        <v>0.2335724053462597</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3159086305534907</v>
+        <v>0.3176442267588189</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1917115957252722</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2922641440432561</v>
+        <v>0.292264144043256</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1564709399072858</v>
@@ -969,7 +969,7 @@
         <v>0.1792014113939449</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2710706975282592</v>
+        <v>0.2710706975282591</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09580572676099357</v>
+        <v>0.09372244388808439</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1003932633522924</v>
+        <v>0.09857430305697418</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1368748872036748</v>
+        <v>0.1358472640242796</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2121601791519017</v>
+        <v>0.2175770286386419</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1625625603770807</v>
+        <v>0.1601230671757251</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1880291473705322</v>
+        <v>0.185518872841037</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1580408361457614</v>
+        <v>0.1577422806265683</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2652290289890462</v>
+        <v>0.2648662346440839</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1343255129867864</v>
+        <v>0.1326150398383751</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1516566232112085</v>
+        <v>0.1502914409069543</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1566358651904614</v>
+        <v>0.1567240062394877</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2492704828607614</v>
+        <v>0.250447664753579</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.15587960734078</v>
+        <v>0.1520254185407308</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1657786979746396</v>
+        <v>0.1675488960369677</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2020023089101363</v>
+        <v>0.2029109724216048</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2807695428105875</v>
+        <v>0.2855710548617986</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.234779609953726</v>
+        <v>0.234792325573084</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2729464307055905</v>
+        <v>0.267886962815879</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2229784823817186</v>
+        <v>0.2257945746649236</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3206345773743967</v>
+        <v>0.3234467893319153</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1814373292793949</v>
+        <v>0.1794993205135212</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2044671503590463</v>
+        <v>0.2046524718181423</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.203877090329871</v>
+        <v>0.2070122085001967</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2940771609911073</v>
+        <v>0.2946862628963847</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.2297677681749017</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2963106724101516</v>
+        <v>0.2963106724101517</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2978558674088527</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.162167081398725</v>
+        <v>0.1618109975640701</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2371333224262609</v>
+        <v>0.2364791032847715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.216456574496853</v>
+        <v>0.2159672249324044</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.280183445463541</v>
+        <v>0.2786906684503332</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2820041681539491</v>
+        <v>0.2809607638758289</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3829295698794418</v>
+        <v>0.3834337355177032</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.331215520610998</v>
+        <v>0.3311811099234732</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3904026781310571</v>
+        <v>0.3905458028891336</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2275471858814417</v>
+        <v>0.2270608141665972</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3162595835324684</v>
+        <v>0.3159757722948036</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2787920699887879</v>
+        <v>0.2798845477074094</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3420030515085659</v>
+        <v>0.3411089732651665</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1876550404954107</v>
+        <v>0.1882087690837782</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.268471548521103</v>
+        <v>0.2676093108432682</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2450477752563024</v>
+        <v>0.2442010436774506</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3123058552683632</v>
+        <v>0.3125295095891272</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3127551671621425</v>
+        <v>0.3130232135071188</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4175347938206327</v>
+        <v>0.417494935259267</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3651329818526998</v>
+        <v>0.3662229582465405</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4179505753644056</v>
+        <v>0.4182322230260156</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2487050156102262</v>
+        <v>0.2483965652012778</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3395562689647078</v>
+        <v>0.3387831766659108</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3020483919522631</v>
+        <v>0.3019177450106899</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3628824536410337</v>
+        <v>0.3624394034728288</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>315827</v>
+        <v>317693</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>438283</v>
+        <v>439797</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>289733</v>
+        <v>293409</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>252935</v>
+        <v>253078</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>593452</v>
+        <v>595578</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>790097</v>
+        <v>786893</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>565008</v>
+        <v>566181</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>527004</v>
+        <v>530015</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>929647</v>
+        <v>927074</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1248829</v>
+        <v>1249681</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>869738</v>
+        <v>871283</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>793657</v>
+        <v>790997</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>375557</v>
+        <v>374019</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>504344</v>
+        <v>503957</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>344375</v>
+        <v>345239</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>299249</v>
+        <v>300754</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>664379</v>
+        <v>666124</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>861808</v>
+        <v>860414</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>630251</v>
+        <v>628408</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>571408</v>
+        <v>571299</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1021989</v>
+        <v>1021028</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1346480</v>
+        <v>1343625</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>951605</v>
+        <v>957588</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>858427</v>
+        <v>855703</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>137569</v>
+        <v>137045</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>298604</v>
+        <v>296285</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>331984</v>
+        <v>331401</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>547283</v>
+        <v>549368</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>258035</v>
+        <v>257181</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>456286</v>
+        <v>454639</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>483621</v>
+        <v>488574</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>702434</v>
+        <v>701480</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>403401</v>
+        <v>404470</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>770380</v>
+        <v>769778</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>844281</v>
+        <v>839232</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1268636</v>
+        <v>1276273</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>184450</v>
+        <v>184257</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>364938</v>
+        <v>365994</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>404974</v>
+        <v>402015</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>641058</v>
+        <v>640414</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>316747</v>
+        <v>315131</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>533667</v>
+        <v>530189</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>565504</v>
+        <v>567882</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>783350</v>
+        <v>785696</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>481876</v>
+        <v>484791</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>878420</v>
+        <v>876499</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>954261</v>
+        <v>949398</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1390617</v>
+        <v>1398257</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>52828</v>
+        <v>51679</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>48307</v>
+        <v>47432</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>74855</v>
+        <v>74293</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>150970</v>
+        <v>154825</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>77447</v>
+        <v>76285</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>86236</v>
+        <v>85085</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>86787</v>
+        <v>86623</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>194911</v>
+        <v>194644</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>138062</v>
+        <v>136304</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>142529</v>
+        <v>141246</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>171677</v>
+        <v>171774</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>360561</v>
+        <v>362264</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>85953</v>
+        <v>83828</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>79770</v>
+        <v>80621</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>110472</v>
+        <v>110969</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>199792</v>
+        <v>203209</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>111852</v>
+        <v>111858</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>125182</v>
+        <v>122861</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>122446</v>
+        <v>123993</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>235627</v>
+        <v>237694</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>186485</v>
+        <v>184493</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>192161</v>
+        <v>192335</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>223455</v>
+        <v>226891</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>425372</v>
+        <v>426253</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>531347</v>
+        <v>530181</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>810944</v>
+        <v>808707</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>731108</v>
+        <v>729455</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>986437</v>
+        <v>981181</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>952948</v>
+        <v>949422</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1361020</v>
+        <v>1362812</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1169886</v>
+        <v>1169765</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1455541</v>
+        <v>1456075</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1514495</v>
+        <v>1511258</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2205598</v>
+        <v>2203619</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1926375</v>
+        <v>1933923</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2479177</v>
+        <v>2472696</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>614860</v>
+        <v>616674</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>918114</v>
+        <v>915166</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>827678</v>
+        <v>824818</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1099530</v>
+        <v>1100317</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1056861</v>
+        <v>1057767</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1484015</v>
+        <v>1483873</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1289686</v>
+        <v>1293536</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1558248</v>
+        <v>1559298</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1655316</v>
+        <v>1653263</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2368069</v>
+        <v>2362678</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2087069</v>
+        <v>2086166</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2630531</v>
+        <v>2627320</v>
       </c>
     </row>
     <row r="20">
